--- a/test/assets/simple_data_spreadsheet.xlsx
+++ b/test/assets/simple_data_spreadsheet.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Contracheque" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,6 +15,7 @@
     <sheet name="Dados Cadastrais" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Contracheque!$A$2:$Q$161</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Contracheque!$A$2:$Q$161</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -77,6 +78,7 @@
         <sz val="9"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ASSIM, SOMENTE OS CAMPOS </t>
     </r>
@@ -87,6 +89,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">DESTACADOS EM VERMELHO</t>
     </r>
@@ -96,6 +99,7 @@
         <sz val="9"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> DEVERÃO SER PREENCHIDOS.</t>
     </r>
@@ -222,6 +226,7 @@
         <sz val="9"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">SOMENTE OS CAMPOS</t>
     </r>
@@ -232,6 +237,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> DESTACADOS EM VERMELHO</t>
     </r>
@@ -241,6 +247,7 @@
         <sz val="9"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> DEVERÃO SER PREENCHIDOS.</t>
     </r>
@@ -403,6 +410,7 @@
         <sz val="9"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">TODOS OS CAMPOS</t>
     </r>
@@ -413,6 +421,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> DESTACADOS EM VERMELHO</t>
     </r>
@@ -422,6 +431,7 @@
         <sz val="9"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> DEVERÃO SER PREENCHIDOS.</t>
     </r>
@@ -472,6 +482,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -489,22 +500,19 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -512,6 +520,7 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -519,18 +528,21 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -538,22 +550,32 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="8"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1169,7 +1191,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1190,14 +1212,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1208,15 +1228,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1227,27 +1247,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1256,111 +1276,111 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="168" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1371,12 +1391,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1387,16 +1407,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1407,40 +1427,40 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="25" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1451,52 +1471,52 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1512,7 +1532,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1523,47 +1543,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1571,84 +1591,83 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="3" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="168" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="42" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="13" fillId="3" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="172" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="44" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="44" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="25" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="25" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="25" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="25" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal_Dados Cadastrais" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1660,29 +1679,29 @@
   </sheetPr>
   <dimension ref="A1:X142"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P21" activeCellId="0" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="41.1336032388664"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="41.1336032388664"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="46.9878542510121"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="4" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="14.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="12.2834008097166"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="4" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="4" width="11.9959514170041"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="4" width="12.5668016194332"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="13.1417004048583"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="16.8542510121458"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="4" width="12.5668016194332"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="4" width="12.7125506072875"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="4" width="17.7085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="12.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="41.4534412955466"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="41.4534412955466"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="47.3481781376518"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="4" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="4" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="4" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="4" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="4" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="4" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="4" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="18.5303643724696"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2266,7 +2285,7 @@
       </c>
       <c r="F21" s="40" t="n">
         <f aca="false">'Subsídio - Direitos Pessoais'!H6</f>
-        <v>63</v>
+        <v>63.5</v>
       </c>
       <c r="G21" s="40" t="n">
         <f aca="false">Indenizações!O6</f>
@@ -2278,7 +2297,7 @@
       </c>
       <c r="I21" s="40" t="n">
         <f aca="false">SUM(E21:H21)</f>
-        <v>1325</v>
+        <v>1325.5</v>
       </c>
       <c r="J21" s="40" t="n">
         <v>21</v>
@@ -2297,7 +2316,7 @@
       </c>
       <c r="O21" s="40" t="n">
         <f aca="false">I21-N21</f>
-        <v>1264</v>
+        <v>1264.5</v>
       </c>
       <c r="P21" s="40" t="n">
         <v>71</v>
@@ -4685,6 +4704,7 @@
       <c r="H140" s="40"/>
       <c r="I140" s="40"/>
       <c r="J140" s="40"/>
+      <c r="K140" s="0"/>
       <c r="L140" s="40"/>
       <c r="M140" s="40"/>
       <c r="N140" s="40"/>
@@ -4703,6 +4723,7 @@
       <c r="H141" s="40"/>
       <c r="I141" s="40"/>
       <c r="J141" s="40"/>
+      <c r="K141" s="0"/>
       <c r="L141" s="40"/>
       <c r="M141" s="40"/>
       <c r="N141" s="40"/>
@@ -4767,20 +4788,22 @@
   <dimension ref="A1:J126"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.8461538461539"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.8542510121458"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.9959514170041"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.2834008097166"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="48.2753036437247"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.2388663967611"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.9959514170041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="48.6315789473684"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4863,7 +4886,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="38" t="str">
         <f aca="false">'Dados Cadastrais'!A5</f>
         <v>xxx.xxx.xxx-xx</v>
@@ -4873,7 +4896,7 @@
         <v>Nome1</v>
       </c>
       <c r="C6" s="60" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="D6" s="60" t="n">
         <v>21</v>
@@ -4889,7 +4912,7 @@
       </c>
       <c r="H6" s="60" t="n">
         <f aca="false">C6+D6+F6</f>
-        <v>63</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6186,20 +6209,22 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="50.7044534412955"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="13.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.8542510121457"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.7125506072874"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.1417004048583"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.4251012145749"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="42.1336032388664"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="42.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8684,7 +8709,7 @@
       <c r="N129" s="79"/>
       <c r="O129" s="78"/>
     </row>
-    <row r="130" s="45" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="42"/>
       <c r="B130" s="10" t="s">
         <v>51</v>
@@ -8736,23 +8761,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9959514170041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="50.7044534412955"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.9959514170041"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.8542510121458"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.2834008097166"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.995951417004"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.7125506072874"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.2834008097166"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.1417004048583"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.2834008097166"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.4251012145749"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="50.417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3562753036437"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.9959514170041"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="50.8825910931174"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11406,7 +11434,7 @@
       <c r="P129" s="79"/>
       <c r="Q129" s="78"/>
     </row>
-    <row r="130" s="45" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="42"/>
       <c r="B130" s="10" t="s">
         <v>51</v>
@@ -11452,7 +11480,7 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -11460,14 +11488,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="91" width="14.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="37.4210526315789"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="91" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/test/assets/simple_data_spreadsheet.xlsx
+++ b/test/assets/simple_data_spreadsheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Contracheque" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,7 @@
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Contracheque!$A$2:$Q$161</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Contracheque!$A$2:$Q$161</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Contracheque!$A$2:$Q$161</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -367,7 +368,7 @@
     <t xml:space="preserve">Total de Direitos Eventuais</t>
   </si>
   <si>
-    <t xml:space="preserve"> Gratificação Eleitoral </t>
+    <t xml:space="preserve">Gratificação Eleitoral</t>
   </si>
   <si>
     <t xml:space="preserve">fdsa1</t>
@@ -1228,15 +1229,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1256,7 +1257,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1276,55 +1277,55 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1332,11 +1333,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1380,7 +1381,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1396,7 +1397,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1412,11 +1413,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1428,7 +1429,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1460,7 +1461,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="25" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1476,15 +1477,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1492,11 +1493,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1516,7 +1517,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1532,7 +1533,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1544,23 +1545,23 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1596,15 +1597,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1612,15 +1613,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="172" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="3" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1652,11 +1653,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1679,29 +1680,29 @@
   </sheetPr>
   <dimension ref="A1:X142"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P21" activeCellId="0" sqref="P21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H16" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="41.4534412955466"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="41.4534412955466"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="47.3481781376518"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="4" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="4" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="4" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="4" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="4" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="4" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="4" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="41.7773279352227"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="41.7773279352227"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="47.7732793522267"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="4" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="4" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="4" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="4" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="4" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="4" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="4" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="18.6396761133603"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4793,16 +4794,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.2388663967611"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.5627530364373"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.9959514170041"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="48.6315789473684"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="49.0607287449393"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -6202,28 +6203,28 @@
   </sheetPr>
   <dimension ref="A1:Q130"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N10" activeCellId="0" sqref="N10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H46" activeCellId="0" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="51.5222672064777"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="42.4210526315789"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="42.7408906882591"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8692,7 +8693,7 @@
       <c r="N128" s="79"/>
       <c r="O128" s="78"/>
     </row>
-    <row r="129" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="42"/>
       <c r="B129" s="0"/>
       <c r="C129" s="78"/>
@@ -8755,31 +8756,31 @@
   </sheetPr>
   <dimension ref="A1:S130"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.9959514170041"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="50.8825910931174"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="51.3117408906883"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8926,7 +8927,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="38" t="str">
         <f aca="false">'Dados Cadastrais'!A5</f>
         <v>xxx.xxx.xxx-xx</v>
@@ -8982,7 +8983,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="38" t="str">
         <f aca="false">'Dados Cadastrais'!A6</f>
         <v>xxx.xxx.xxx-xx</v>
@@ -9038,7 +9039,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="38" t="str">
         <f aca="false">'Dados Cadastrais'!A7</f>
         <v>xxx.xxx.xxx-xx</v>
@@ -9094,7 +9095,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="38" t="str">
         <f aca="false">'Dados Cadastrais'!A8</f>
         <v>xxx.xxx.xxx-xx</v>
@@ -11415,7 +11416,7 @@
       <c r="P128" s="79"/>
       <c r="Q128" s="78"/>
     </row>
-    <row r="129" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="42"/>
       <c r="B129" s="0"/>
       <c r="C129" s="78"/>
@@ -11488,14 +11489,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="91" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.2753036437247"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="37.7044534412955"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="46.2753036437247"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="91" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
